--- a/data/income_statement/3digits/total/023_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/023_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>023-Gathering of wild growing non-wood products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>023-Gathering of wild growing non-wood products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>29800.72258</v>
@@ -982,11 +888,16 @@
       <c r="M5" s="47" t="n">
         <v>123187.06086</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="47" t="n">
+        <v>158745.23</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>18191.46444</v>
@@ -1001,7 +912,7 @@
         <v>43140.05998999999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>44522.67504</v>
+        <v>44522.67503999999</v>
       </c>
       <c r="H6" s="48" t="n">
         <v>52091.38784</v>
@@ -1021,11 +932,16 @@
       <c r="M6" s="48" t="n">
         <v>103946.34631</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="48" t="n">
+        <v>136216.249</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>11563.55489</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>18486.37999</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>14473.148</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>45.70325</v>
@@ -1099,11 +1020,16 @@
       <c r="M8" s="48" t="n">
         <v>754.3345599999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="48" t="n">
+        <v>8055.833</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>47.67095</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>422.52398</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>557.294</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>35.08676000000001</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>332.84225</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>451.508</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>0</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>9.744999999999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>12.58419</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>89.68173</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>96.041</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>29753.05163</v>
@@ -1294,11 +1240,16 @@
       <c r="M13" s="47" t="n">
         <v>122764.53688</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="47" t="n">
+        <v>158187.936</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>27738.07789</v>
@@ -1316,7 +1267,7 @@
         <v>42207.90797</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>53749.02029</v>
+        <v>53749.02029000001</v>
       </c>
       <c r="I14" s="47" t="n">
         <v>47387.74353</v>
@@ -1325,19 +1276,24 @@
         <v>50714.12594</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>50445.56740000001</v>
+        <v>50445.5674</v>
       </c>
       <c r="L14" s="47" t="n">
         <v>101539.51138</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>105854.24511</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>105854.33271</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>144742.193</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>9057.000739999999</v>
@@ -1372,11 +1328,16 @@
       <c r="M15" s="48" t="n">
         <v>19571.17788</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>39899.358</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>17322.22727</v>
@@ -1411,11 +1372,16 @@
       <c r="M16" s="48" t="n">
         <v>78737.60168000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>94300.637</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1358.84988</v>
@@ -1448,13 +1414,18 @@
         <v>9425.520059999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6505.8537</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6505.9413</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>10396.809</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
@@ -1475,7 +1446,7 @@
         <v>157.2746</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>366.0677900000001</v>
+        <v>366.06779</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>0</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>1039.61185</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>145.389</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2014.97374</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>5737.02163</v>
+        <v>5737.021629999999</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>6057.0868</v>
@@ -1526,31 +1502,36 @@
         <v>16260.77823</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>16910.29177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16910.20417</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>13445.743</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2597.95277</v>
+        <v>2597.952769999999</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>6382.834599999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>5046.862200000001</v>
+        <v>5046.8622</v>
       </c>
       <c r="F20" s="47" t="n">
         <v>7613.466439999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>4985.367200000001</v>
+        <v>4985.3672</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>5199.760250000001</v>
+        <v>5199.76025</v>
       </c>
       <c r="I20" s="47" t="n">
         <v>5748.929160000001</v>
@@ -1562,16 +1543,21 @@
         <v>7218.486599999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>10844.35091</v>
+        <v>10848.77063</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>11604.09082</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>11610.77585</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>11297.818</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>67.10744</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>31.157</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>891.3880399999999</v>
@@ -1645,23 +1636,28 @@
       <c r="M22" s="48" t="n">
         <v>3266.718139999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>2730.984</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1706.56473</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5809.71157</v>
+        <v>5809.711569999999</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>4494.47831</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>6750.506469999999</v>
+        <v>6750.50647</v>
       </c>
       <c r="G23" s="48" t="n">
         <v>3985.45708</v>
@@ -1676,19 +1672,24 @@
         <v>4774.71054</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4922.23614</v>
+        <v>4922.236140000001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>6361.07124</v>
+        <v>6365.49096</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>8270.265240000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8276.950270000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>8535.677</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>-582.9790300000001</v>
@@ -1700,7 +1701,7 @@
         <v>1010.2246</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>877.0740299999999</v>
+        <v>877.07403</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>1647.08094</v>
@@ -1718,22 +1719,27 @@
         <v>4091.85924</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5416.427320000001</v>
+        <v>5412.0076</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5306.20095</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5299.42832</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2147.925</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>62.25380999999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>373.31259</v>
+        <v>373.3125899999999</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>404.66631</v>
@@ -1760,13 +1766,18 @@
         <v>1630.40097</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>853.35842</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>857.00127</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2002.158</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>11.06219</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>35.7855</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>538.22</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>9.255930000000001</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>7.25</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>9.710090000000001</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>3.056</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>2.95713</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>607.9782299999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>997.439</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>57.865</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>22.01847</v>
@@ -2150,13 +2206,18 @@
         <v>461.03571</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>209.59469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>213.23754</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>405.578</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>55.06472</v>
@@ -2168,7 +2229,7 @@
         <v>224.16841</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>34.31948</v>
+        <v>34.31948000000001</v>
       </c>
       <c r="G36" s="47" t="n">
         <v>62.17409000000001</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>990.1839200000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>931.718</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.8793300000000001</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>48.903</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.06027</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3.95357</v>
@@ -2347,11 +2428,16 @@
       <c r="M40" s="48" t="n">
         <v>989.33518</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="48" t="n">
+        <v>924.506</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1.26855</v>
@@ -2464,23 +2560,28 @@
       <c r="M43" s="48" t="n">
         <v>0.84874</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>7.212</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>165.12607</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>498.7103000000001</v>
+        <v>498.7103</v>
       </c>
       <c r="E44" s="47" t="n">
         <v>547.54258</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>769.3244400000001</v>
+        <v>769.32444</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>905.48148</v>
@@ -2489,7 +2590,7 @@
         <v>293.3931</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>794.40542</v>
+        <v>794.4054199999999</v>
       </c>
       <c r="J44" s="47" t="n">
         <v>779.0485699999999</v>
@@ -2503,11 +2604,16 @@
       <c r="M44" s="47" t="n">
         <v>2935.99836</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>2520.46</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>165.12607</v>
@@ -2519,7 +2625,7 @@
         <v>545.76201</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>745.6546200000001</v>
+        <v>745.65462</v>
       </c>
       <c r="G45" s="48" t="n">
         <v>872.97875</v>
@@ -2528,7 +2634,7 @@
         <v>176.08572</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>677.4327000000001</v>
+        <v>677.4327</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>583.82907</v>
@@ -2542,11 +2648,16 @@
       <c r="M45" s="48" t="n">
         <v>2935.99836</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>2520.46</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2581,23 +2692,28 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>-740.91601</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-807.0201300000001</v>
+        <v>-807.02013</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>643.1799199999999</v>
+        <v>643.17992</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>59.55115</v>
+        <v>59.55115000000002</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>936.58024</v>
@@ -2615,16 +2731,21 @@
         <v>2621.32814</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2628.1977</v>
+        <v>2623.77798</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>2233.37709</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>2230.24731</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>697.905</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>15.75486</v>
@@ -2654,16 +2775,21 @@
         <v>231.22511</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>278.36016</v>
+        <v>278.43458</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>421.1301100000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>421.20453</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>296.339</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>15.75486</v>
@@ -2732,16 +2863,21 @@
         <v>231.22511</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>278.36016</v>
+        <v>278.43458</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>421.1301100000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>421.20453</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>296.339</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>131.84702</v>
@@ -2756,7 +2892,7 @@
         <v>73.06334</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>86.67813</v>
+        <v>86.67813000000001</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>42.60814</v>
@@ -2776,11 +2912,16 @@
       <c r="M51" s="47" t="n">
         <v>339.31626</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="47" t="n">
+        <v>400.423</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>1.12158</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>217.73102</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>232.468</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>130.72544</v>
@@ -2870,7 +3021,7 @@
         <v>774.1001600000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>51.38101</v>
+        <v>51.38101000000001</v>
       </c>
       <c r="G54" s="48" t="n">
         <v>19.11494</v>
@@ -2893,26 +3044,31 @@
       <c r="M54" s="48" t="n">
         <v>121.58524</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="48" t="n">
+        <v>167.955</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>-857.00817</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-832.5599100000001</v>
+        <v>-832.5599099999999</v>
       </c>
       <c r="E55" s="47" t="n">
         <v>-585.612</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>29.66767</v>
+        <v>29.66767000000003</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>975.9588600000001</v>
+        <v>975.9588599999998</v>
       </c>
       <c r="H55" s="47" t="n">
         <v>1491.80819</v>
@@ -2927,16 +3083,21 @@
         <v>2796.73848</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2867.85215</v>
+        <v>2863.50685</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2315.19094</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2312.13558</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>593.821</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>60.97627000000001</v>
@@ -2957,25 +3118,30 @@
         <v>312.92941</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>379.4305199999999</v>
+        <v>379.43052</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>473.42402</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>619.8285800000001</v>
+        <v>619.82858</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>695.1080800000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>219.62652</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>226.12937</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>404.123</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-917.9844399999999</v>
@@ -2984,7 +3150,7 @@
         <v>-904.9305400000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-770.3151399999999</v>
+        <v>-770.31514</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>-117.73012</v>
@@ -2999,19 +3165,22 @@
         <v>1398.18241</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>941.7675699999999</v>
+        <v>941.7675700000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2176.9099</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2172.74407</v>
+        <v>2168.39877</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2095.56442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2086.00621</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>189.698</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>39</v>
@@ -3059,13 +3231,16 @@
         <v>24</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>36</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>